--- a/data/table validation 25 march.xlsx
+++ b/data/table validation 25 march.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\build_database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9208E7D6-C9E7-4F0A-9B99-9178F90F9272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482C6F0-E5D4-4632-BB64-BC0ED3E24D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52510" yWindow="750" windowWidth="22620" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32670" yWindow="1050" windowWidth="31200" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table validation" sheetId="1" r:id="rId1"/>
@@ -1458,8 +1458,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="M91" sqref="B90:M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/table validation 25 march.xlsx
+++ b/data/table validation 25 march.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7482C6F0-E5D4-4632-BB64-BC0ED3E24D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EB532-B0E3-4E52-9157-46A7C4D004BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32670" yWindow="1050" windowWidth="31200" windowHeight="19380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="3503" windowWidth="14483" windowHeight="9284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table validation" sheetId="1" r:id="rId1"/>
@@ -1458,28 +1458,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="M91" sqref="B90:M91"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>114</v>
       </c>

--- a/data/table validation 25 march.xlsx
+++ b/data/table validation 25 march.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9EB532-B0E3-4E52-9157-46A7C4D004BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E3F0DCE-9FCE-4ECA-A503-6581EAE8826E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="3503" windowWidth="14483" windowHeight="9284" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table validation" sheetId="1" r:id="rId1"/>
@@ -1458,28 +1458,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J63" sqref="J60:J63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.06640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="41.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2628,7 +2628,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3634,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3746,7 +3746,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4627,7 +4627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5309,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5348,7 +5348,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5452,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
